--- a/biology/Zoologie/Catatropis/Catatropis.xlsx
+++ b/biology/Zoologie/Catatropis/Catatropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catatropis est un genre de vers parasites de la famille des Notocotylidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 mai 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 mai 2020) :
 Catatropis cygni Yamaguti, 1939
 Catatropis hisikui Yamaguti, 1939
 Catatropis johnstoni Martin, 1956
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Theodor Odhner, « Die Trematoden des arktischen Gebietes », Fauna arctica, Leipzig, Inconnu, vol. 4,‎ 1905, p. 291-372 (OCLC 4333951, DOI 10.5962/BHL.TITLE.11724, lire en ligne)</t>
         </is>
